--- a/Projects/MARSIN/Data/Template.xlsx
+++ b/Projects/MARSIN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="158">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -537,7 +539,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -608,12 +610,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -779,7 +775,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,8 +799,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1021,10 +1021,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,22 +1105,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1201,21 +1206,21 @@
   <dimension ref="A1:AMB44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36158,17 +36163,17 @@
   </sheetPr>
   <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36176,7 +36181,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -41326,10 +41331,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41837,18 +41842,18 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42320,7 +42325,7 @@
       <c r="R8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="54" t="n">
+      <c r="S8" s="52" t="n">
         <v>0.8</v>
       </c>
       <c r="T8" s="35" t="s">
@@ -42361,10 +42366,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.3441295546559"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42380,31 +42385,31 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -42465,1056 +42470,1056 @@
       <c r="T2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58" t="n">
+      <c r="C3" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="61" t="s">
+      <c r="N3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="58" t="n">
+      <c r="C4" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="61" t="s">
+      <c r="F4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="61" t="s">
+      <c r="R4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="58" t="n">
+      <c r="C5" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="61" t="s">
+      <c r="F5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="61" t="s">
+      <c r="S5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="58" t="n">
+      <c r="C6" s="57" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="61" t="s">
+      <c r="F6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="61" t="s">
+      <c r="T6" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="58" t="n">
+      <c r="C7" s="57" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="61" t="s">
+      <c r="F7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="60" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="58" t="n">
+      <c r="C8" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="61" t="s">
+      <c r="N8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="58" t="n">
+      <c r="C9" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="63" t="s">
+      <c r="F9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="63" t="s">
+      <c r="P9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="63" t="s">
+      <c r="R9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="58" t="n">
+      <c r="C10" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="63" t="s">
+      <c r="F10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="63" t="s">
+      <c r="S10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="58" t="n">
+      <c r="C11" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="63" t="s">
+      <c r="F11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="63" t="s">
+      <c r="T11" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="58" t="n">
+      <c r="C12" s="57" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" s="63" t="s">
+      <c r="F12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="58" t="n">
+      <c r="C13" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" s="61" t="s">
+      <c r="N13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="58" t="n">
+      <c r="C14" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="61" t="s">
+      <c r="N14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="58" t="n">
+      <c r="C15" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="T15" s="61" t="s">
+      <c r="N15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="62" t="n">
+      <c r="C16" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="63" t="s">
+      <c r="F16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="63" t="s">
+      <c r="Q16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" s="63" t="s">
+      <c r="R16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="58" t="n">
+      <c r="C17" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="63" t="s">
+      <c r="F17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="63" t="s">
+      <c r="S17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="58" t="n">
+      <c r="C18" s="57" t="n">
         <v>14</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="63" t="s">
+      <c r="F18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="63" t="s">
+      <c r="T18" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="58" t="n">
+      <c r="C19" s="57" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" s="63" t="s">
+      <c r="F19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -43549,15 +43554,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43569,92 +43574,92 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="65" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -43669,54 +43674,54 @@
       <c r="E3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="71" t="n">
+      <c r="F3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="G3" s="71" t="n">
+      <c r="G3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="H3" s="71" t="n">
+      <c r="H3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="I3" s="71" t="n">
+      <c r="I3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="J3" s="71" t="n">
+      <c r="J3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="K3" s="71" t="n">
+      <c r="K3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="L3" s="71" t="n">
+      <c r="L3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="M3" s="71" t="n">
+      <c r="M3" s="70" t="n">
         <v>0.55</v>
       </c>
-      <c r="N3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="72" t="s">
+      <c r="N3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -43731,54 +43736,54 @@
       <c r="E4" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="73" t="n">
+      <c r="F4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="72" t="n">
         <v>0.9</v>
       </c>
-      <c r="O4" s="73" t="n">
+      <c r="O4" s="72" t="n">
         <v>0.9</v>
       </c>
-      <c r="P4" s="73" t="n">
+      <c r="P4" s="72" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="73" t="n">
+      <c r="Q4" s="72" t="n">
         <v>0.9</v>
       </c>
-      <c r="R4" s="73" t="n">
+      <c r="R4" s="72" t="n">
         <v>0.8</v>
       </c>
-      <c r="S4" s="73" t="n">
+      <c r="S4" s="72" t="n">
         <v>0.9</v>
       </c>
-      <c r="T4" s="73" t="n">
+      <c r="T4" s="72" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="48" t="s">
@@ -43790,57 +43795,57 @@
       <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="71" t="n">
+      <c r="F5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="G5" s="71" t="n">
+      <c r="G5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="H5" s="71" t="n">
+      <c r="H5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="71" t="n">
+      <c r="I5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="J5" s="71" t="n">
+      <c r="J5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="K5" s="71" t="n">
+      <c r="K5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" s="71" t="n">
+      <c r="L5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="M5" s="71" t="n">
+      <c r="M5" s="70" t="n">
         <v>0.75</v>
       </c>
-      <c r="N5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="72" t="s">
+      <c r="N5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -43855,54 +43860,54 @@
       <c r="E6" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="75" t="n">
+      <c r="F6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="74" t="n">
         <v>0.9</v>
       </c>
-      <c r="O6" s="75" t="n">
+      <c r="O6" s="74" t="n">
         <v>0.9</v>
       </c>
-      <c r="P6" s="75" t="n">
+      <c r="P6" s="74" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q6" s="75" t="n">
+      <c r="Q6" s="74" t="n">
         <v>0.9</v>
       </c>
-      <c r="R6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="72" t="s">
+      <c r="R6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -43917,54 +43922,54 @@
       <c r="E7" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="75" t="n">
+      <c r="F7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="S7" s="75" t="n">
+      <c r="S7" s="74" t="n">
         <v>0.9</v>
       </c>
-      <c r="T7" s="75" t="n">
+      <c r="T7" s="74" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -43979,54 +43984,54 @@
       <c r="E8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="75" t="n">
+      <c r="F8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" s="75" t="n">
+      <c r="G8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="H8" s="75" t="n">
+      <c r="H8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="I8" s="75" t="n">
+      <c r="I8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="J8" s="75" t="n">
+      <c r="J8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="K8" s="75" t="n">
+      <c r="K8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="L8" s="75" t="n">
+      <c r="L8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="M8" s="75" t="n">
+      <c r="M8" s="74" t="n">
         <v>0.3</v>
       </c>
-      <c r="N8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="72" t="s">
+      <c r="N8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="48" t="s">
@@ -44041,54 +44046,54 @@
       <c r="E9" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="75" t="n">
+      <c r="F9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="G9" s="75" t="n">
+      <c r="G9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="H9" s="75" t="n">
+      <c r="H9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="I9" s="75" t="n">
+      <c r="I9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="J9" s="75" t="n">
+      <c r="J9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="K9" s="75" t="n">
+      <c r="K9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="75" t="n">
+      <c r="L9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="M9" s="75" t="n">
+      <c r="M9" s="74" t="n">
         <v>0.6</v>
       </c>
-      <c r="N9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="72" t="s">
+      <c r="N9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -44103,54 +44108,54 @@
       <c r="E10" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="75" t="n">
+      <c r="F10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="S10" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="72" t="s">
+      <c r="S10" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -44165,54 +44170,54 @@
       <c r="E11" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="75" t="n">
+      <c r="F11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="H11" s="75" t="n">
+      <c r="H11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="I11" s="75" t="n">
+      <c r="I11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="J11" s="75" t="n">
+      <c r="J11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="K11" s="75" t="n">
+      <c r="K11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="L11" s="75" t="n">
+      <c r="L11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="M11" s="75" t="n">
+      <c r="M11" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="N11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="72" t="s">
+      <c r="N11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="48" t="s">
@@ -44227,49 +44232,49 @@
       <c r="E12" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="75" t="n">
+      <c r="F12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="74" t="n">
         <v>0.95</v>
       </c>
-      <c r="O12" s="75" t="n">
+      <c r="O12" s="74" t="n">
         <v>0.95</v>
       </c>
-      <c r="P12" s="75" t="n">
+      <c r="P12" s="74" t="n">
         <v>0.95</v>
       </c>
-      <c r="Q12" s="75" t="n">
+      <c r="Q12" s="74" t="n">
         <v>0.95</v>
       </c>
-      <c r="R12" s="75" t="n">
+      <c r="R12" s="74" t="n">
         <v>0.8</v>
       </c>
-      <c r="S12" s="75" t="n">
+      <c r="S12" s="74" t="n">
         <v>0.95</v>
       </c>
-      <c r="T12" s="75" t="n">
+      <c r="T12" s="74" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -44295,48 +44300,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="76" t="s">
         <v>45</v>
       </c>
     </row>
@@ -44362,7 +44367,7 @@
       <c r="G2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44388,7 +44393,7 @@
       <c r="G3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44414,7 +44419,7 @@
       <c r="G4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44440,7 +44445,7 @@
       <c r="G5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44492,7 +44497,7 @@
       <c r="G7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44518,7 +44523,7 @@
       <c r="G8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44544,7 +44549,7 @@
       <c r="G9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44570,7 +44575,7 @@
       <c r="G10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44596,7 +44601,7 @@
       <c r="G11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44622,7 +44627,7 @@
       <c r="G12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44648,7 +44653,7 @@
       <c r="G13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44674,7 +44679,7 @@
       <c r="G14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44700,7 +44705,7 @@
       <c r="G15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44726,7 +44731,7 @@
       <c r="G16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44752,7 +44757,7 @@
       <c r="G17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44778,7 +44783,7 @@
       <c r="G18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44804,7 +44809,7 @@
       <c r="G19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44830,7 +44835,7 @@
       <c r="G20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44856,7 +44861,7 @@
       <c r="G21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44882,7 +44887,7 @@
       <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44908,7 +44913,7 @@
       <c r="G23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44934,7 +44939,7 @@
       <c r="G24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44960,7 +44965,7 @@
       <c r="G25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -44986,7 +44991,7 @@
       <c r="G26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -45012,7 +45017,7 @@
       <c r="G27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -45038,7 +45043,7 @@
       <c r="G28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -45064,7 +45069,7 @@
       <c r="G29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -45090,34 +45095,34 @@
       <c r="G30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="9" t="s">
+    <row r="31" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>55</v>
+      <c r="G31" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45125,7 +45130,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>56</v>
@@ -45142,22 +45147,22 @@
       <c r="G32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="63" t="s">
-        <v>56</v>
+      <c r="H32" s="62" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48" t="s">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>55</v>
@@ -45168,7 +45173,33 @@
       <c r="G33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="62" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Projects/MARSIN/Data/Template.xlsx
+++ b/Projects/MARSIN/Data/Template.xlsx
@@ -51,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -196,7 +197,7 @@
     <t xml:space="preserve">Cash &amp; carry</t>
   </si>
   <si>
-    <t xml:space="preserve">min Facings</t>
+    <t xml:space="preserve">Min Facings</t>
   </si>
   <si>
     <t xml:space="preserve">Entity</t>
@@ -1270,14 +1271,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36220,8 +36221,8 @@
   </sheetPr>
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36229,7 +36230,7 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.21457489878542"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="202.882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="204.704453441296"/>
     <col collapsed="false" hidden="false" max="20" min="6" style="0" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
   </cols>
@@ -36268,7 +36269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -40662,10 +40663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41179,12 +41180,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -41697,10 +41698,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42885,15 +42886,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43639,14 +43640,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSIN/Data/Template.xlsx
+++ b/Projects/MARSIN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,9 +17,10 @@
     <sheet name="Weight" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$49</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$I$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$2:$amk$77</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
@@ -52,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="165">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -414,9 +416,6 @@
     <t xml:space="preserve">Pedigree Care &amp; Treat Pillar</t>
   </si>
   <si>
-    <t xml:space="preserve">Pedigree : Wet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pedigree Denta Pillar</t>
   </si>
   <si>
@@ -445,9 +444,6 @@
   </si>
   <si>
     <t xml:space="preserve">8410136004155, 8410136004056, 8410136004018, 8410136004193, 8410136004117, 18853301550120, 18853301550045, 18853301550076, 18853301550052, 18853301550021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiskas : Wet</t>
   </si>
   <si>
     <t xml:space="preserve">18906002483171, 18906002489043, 18906002483188, 18906002481436</t>
@@ -561,10 +557,10 @@
     <t xml:space="preserve">Whiskas, ME-O : Dry</t>
   </si>
   <si>
-    <t xml:space="preserve">Whiskas, Drools, ME-O : Wet</t>
+    <t xml:space="preserve">Whiskas, Drools, ME-O : Gravy</t>
   </si>
   <si>
-    <t xml:space="preserve">Whiskas, ME-O : Wet</t>
+    <t xml:space="preserve">Whiskas, ME-O : Gravy</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1293,7 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
@@ -1305,14 +1301,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36339,7 +36335,7 @@
     <row r="46" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:K49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -36359,17 +36355,17 @@
   </sheetPr>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36377,7 +36373,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -40460,7 +40456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" s="36" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="19" t="s">
         <v>36</v>
       </c>
@@ -40474,7 +40470,7 @@
         <v>29</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>57</v>
@@ -40534,7 +40530,7 @@
         <v>113</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>57</v>
@@ -40842,7 +40838,7 @@
         <v>106</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="37" t="s">
         <v>57</v>
@@ -41025,10 +41021,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="F78" s="39" t="s">
         <v>57</v>
@@ -41101,16 +41097,16 @@
   </sheetPr>
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41174,10 +41170,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>50</v>
@@ -41230,10 +41226,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>124</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>56</v>
@@ -41354,10 +41350,10 @@
         <v>54</v>
       </c>
       <c r="D5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>56</v>
@@ -41416,7 +41412,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>33</v>
@@ -41478,10 +41474,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>56</v>
@@ -41540,10 +41536,10 @@
         <v>54</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
@@ -41605,7 +41601,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>58</v>
@@ -41680,18 +41676,18 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -41740,16 +41736,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>135</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>50</v>
@@ -41805,10 +41801,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>57</v>
@@ -41870,10 +41866,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>57</v>
@@ -41996,10 +41992,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>57</v>
@@ -42061,10 +42057,10 @@
         <v>33</v>
       </c>
       <c r="E7" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>138</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>57</v>
@@ -42198,16 +42194,16 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42259,13 +42255,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>141</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>50</v>
@@ -42318,10 +42314,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" s="66" t="s">
         <v>56</v>
@@ -42380,10 +42376,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>57</v>
@@ -42442,10 +42438,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>57</v>
@@ -42504,10 +42500,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>57</v>
@@ -42566,10 +42562,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>57</v>
@@ -42628,10 +42624,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="66" t="s">
         <v>56</v>
@@ -42690,10 +42686,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>57</v>
@@ -42752,10 +42748,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>57</v>
@@ -42814,10 +42810,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>57</v>
@@ -42876,10 +42872,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>57</v>
@@ -42938,10 +42934,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="66" t="s">
         <v>56</v>
@@ -43000,10 +42996,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="66" t="s">
         <v>56</v>
@@ -43062,10 +43058,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="66" t="s">
         <v>56</v>
@@ -43124,10 +43120,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>57</v>
@@ -43186,10 +43182,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>57</v>
@@ -43248,10 +43244,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>57</v>
@@ -43310,10 +43306,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>57</v>
@@ -43372,10 +43368,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F20" s="73" t="s">
         <v>56</v>
@@ -43434,10 +43430,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="73" t="s">
         <v>56</v>
@@ -43496,10 +43492,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>57</v>
@@ -43572,21 +43568,21 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43637,10 +43633,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="76" t="s">
         <v>50</v>
@@ -43696,7 +43692,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="82" t="n">
         <v>0.55</v>
@@ -43758,7 +43754,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="83" t="s">
         <v>57</v>
@@ -43820,7 +43816,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="82" t="n">
         <v>0.75</v>
@@ -43882,7 +43878,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>57</v>
@@ -43944,7 +43940,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>57</v>
@@ -44003,10 +43999,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="87" t="n">
         <v>0.3</v>
@@ -44068,7 +44064,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="87" t="n">
         <v>0.6</v>
@@ -44130,7 +44126,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>57</v>
@@ -44189,10 +44185,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11" s="87" t="n">
         <v>0.8</v>
@@ -44251,10 +44247,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>57</v>
@@ -44326,20 +44322,20 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
